--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Rspo3-Fzd8.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Rspo3-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.81743082134232</v>
+        <v>2.822099333333334</v>
       </c>
       <c r="H2">
-        <v>2.81743082134232</v>
+        <v>8.466298</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.29320300801706</v>
+        <v>2.416422666666667</v>
       </c>
       <c r="N2">
-        <v>2.29320300801706</v>
+        <v>7.249268</v>
       </c>
       <c r="O2">
-        <v>0.2916350009962236</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="P2">
-        <v>0.2916350009962236</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="Q2">
-        <v>6.460940834382184</v>
+        <v>6.819384796651556</v>
       </c>
       <c r="R2">
-        <v>6.460940834382184</v>
+        <v>61.374463169864</v>
       </c>
       <c r="S2">
-        <v>0.2916350009962236</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="T2">
-        <v>0.2916350009962236</v>
+        <v>0.2729115228630338</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +596,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.81743082134232</v>
+        <v>2.822099333333334</v>
       </c>
       <c r="H3">
-        <v>2.81743082134232</v>
+        <v>8.466298</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.87571753678448</v>
+        <v>2.913654666666667</v>
       </c>
       <c r="N3">
-        <v>2.87571753678448</v>
+        <v>8.740964</v>
       </c>
       <c r="O3">
-        <v>0.3657155008837144</v>
+        <v>0.3290690586319826</v>
       </c>
       <c r="P3">
-        <v>0.3657155008837144</v>
+        <v>0.3290690586319827</v>
       </c>
       <c r="Q3">
-        <v>8.10213522161121</v>
+        <v>8.222622892363555</v>
       </c>
       <c r="R3">
-        <v>8.10213522161121</v>
+        <v>74.003606031272</v>
       </c>
       <c r="S3">
-        <v>0.3657155008837144</v>
+        <v>0.3290690586319826</v>
       </c>
       <c r="T3">
-        <v>0.3657155008837144</v>
+        <v>0.3290690586319827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.81743082134232</v>
+        <v>2.822099333333334</v>
       </c>
       <c r="H4">
-        <v>2.81743082134232</v>
+        <v>8.466298</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +676,158 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.69434346734889</v>
+        <v>0.02921733333333333</v>
       </c>
       <c r="N4">
-        <v>2.69434346734889</v>
+        <v>0.08765200000000001</v>
       </c>
       <c r="O4">
-        <v>0.342649498120062</v>
+        <v>0.003299814657423431</v>
       </c>
       <c r="P4">
-        <v>0.342649498120062</v>
+        <v>0.003299814657423432</v>
       </c>
       <c r="Q4">
-        <v>7.591126328191097</v>
+        <v>0.08245421692177779</v>
       </c>
       <c r="R4">
-        <v>7.591126328191097</v>
+        <v>0.7420879522960001</v>
       </c>
       <c r="S4">
-        <v>0.342649498120062</v>
+        <v>0.003299814657423431</v>
       </c>
       <c r="T4">
-        <v>0.342649498120062</v>
+        <v>0.003299814657423432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.822099333333334</v>
+      </c>
+      <c r="H5">
+        <v>8.466298</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.02851766666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.085553</v>
+      </c>
+      <c r="O5">
+        <v>0.003220794087830817</v>
+      </c>
+      <c r="P5">
+        <v>0.003220794087830818</v>
+      </c>
+      <c r="Q5">
+        <v>0.08047968808822223</v>
+      </c>
+      <c r="R5">
+        <v>0.7243171927940001</v>
+      </c>
+      <c r="S5">
+        <v>0.003220794087830817</v>
+      </c>
+      <c r="T5">
+        <v>0.003220794087830818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.822099333333334</v>
+      </c>
+      <c r="H6">
+        <v>8.466298</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.466422333333333</v>
+      </c>
+      <c r="N6">
+        <v>10.399267</v>
+      </c>
+      <c r="O6">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="P6">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="Q6">
+        <v>9.782588155951778</v>
+      </c>
+      <c r="R6">
+        <v>88.043293403566</v>
+      </c>
+      <c r="S6">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="T6">
+        <v>0.3914988097597293</v>
       </c>
     </row>
   </sheetData>
